--- a/data2/EM-SM/vindex.xlsx
+++ b/data2/EM-SM/vindex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="datierung" sheetId="1" state="visible" r:id="rId1"/>
@@ -83,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -115,6 +115,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9948,9 +9951,9 @@
   </sheetPr>
   <dimension ref="A1:G1322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1066" sqref="F1066"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1326" sqref="B1326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -14986,6 +14989,11 @@
       <c r="D260" t="n">
         <v>17</v>
       </c>
+      <c r="E260" s="15" t="inlineStr">
+        <is>
+          <t>Chokwe</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="14" t="inlineStr">
@@ -32954,6 +32962,11 @@
       <c r="D1188" t="n">
         <v>40</v>
       </c>
+      <c r="E1188" s="15" t="inlineStr">
+        <is>
+          <t>Chokwe</t>
+        </is>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="14" t="inlineStr">
@@ -32974,6 +32987,11 @@
       <c r="D1189" t="n">
         <v>8</v>
       </c>
+      <c r="E1189" s="15" t="inlineStr">
+        <is>
+          <t>Chokwe</t>
+        </is>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="14" t="inlineStr">
@@ -33109,6 +33127,11 @@
       <c r="D1197" t="n">
         <v>3</v>
       </c>
+      <c r="F1197" s="3" t="inlineStr">
+        <is>
+          <t>vgl. Uapou</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="14" t="inlineStr">
@@ -33149,6 +33172,11 @@
       <c r="D1199" t="n">
         <v>1</v>
       </c>
+      <c r="E1199" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ubangi </t>
+        </is>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="14" t="inlineStr">
@@ -33704,6 +33732,11 @@
       <c r="D1229" t="n">
         <v>18</v>
       </c>
+      <c r="F1229" s="3" t="inlineStr">
+        <is>
+          <t>wohl auch Bundesstaat</t>
+        </is>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="14" t="inlineStr">
@@ -33730,7 +33763,7 @@
         </is>
       </c>
     </row>
-    <row r="1231">
+    <row r="1231" ht="30" customHeight="1" s="7">
       <c r="A1231" s="14" t="inlineStr">
         <is>
           <t>Vereingte Staaten (USA)</t>
@@ -33751,11 +33784,16 @@
       </c>
       <c r="E1231" s="14" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten (USA)</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
+          <t>Vereinigte Staaten von Amerika</t>
+        </is>
+      </c>
+      <c r="F1231" s="3" t="inlineStr">
+        <is>
+          <t>!upstream korrigieren</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232" ht="30" customHeight="1" s="7">
       <c r="A1232" s="14" t="inlineStr">
         <is>
           <t>Vereinigte Staaten (USA)</t>
@@ -33774,6 +33812,11 @@
       <c r="D1232" t="n">
         <v>100</v>
       </c>
+      <c r="E1232" s="14" t="inlineStr">
+        <is>
+          <t>Vereinigte Staaten von Amerika</t>
+        </is>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="14" t="inlineStr">
@@ -33789,6 +33832,11 @@
       <c r="D1233" t="n">
         <v>1</v>
       </c>
+      <c r="E1233" s="14" t="inlineStr">
+        <is>
+          <t>Guatemala (?)</t>
+        </is>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="14" t="inlineStr">
@@ -33829,6 +33877,11 @@
       <c r="D1235" t="n">
         <v>1</v>
       </c>
+      <c r="E1235" s="14" t="inlineStr">
+        <is>
+          <t>Vili (Bawili)</t>
+        </is>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="14" t="inlineStr">
@@ -34199,6 +34252,11 @@
       <c r="D1254" t="n">
         <v>1</v>
       </c>
+      <c r="F1254" s="3" t="inlineStr">
+        <is>
+          <t>mit z oder mit s?</t>
+        </is>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="14" t="inlineStr">
@@ -34219,6 +34277,11 @@
       <c r="D1255" t="n">
         <v>1</v>
       </c>
+      <c r="F1255" s="3" t="inlineStr">
+        <is>
+          <t>mit z oder mit s?</t>
+        </is>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="14" t="inlineStr">
@@ -34624,6 +34687,11 @@
       <c r="D1275" t="n">
         <v>1</v>
       </c>
+      <c r="F1275" s="3" t="inlineStr">
+        <is>
+          <t>in m+ korrigieren</t>
+        </is>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="14" t="inlineStr">
@@ -34639,6 +34707,11 @@
       <c r="D1276" t="n">
         <v>1</v>
       </c>
+      <c r="F1276" s="3" t="inlineStr">
+        <is>
+          <t>immer Kontinentteil</t>
+        </is>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="14" t="inlineStr">
@@ -34660,7 +34733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1278">
+    <row r="1278" ht="30" customHeight="1" s="7">
       <c r="A1278" s="14" t="inlineStr">
         <is>
           <t>Westbrasilien</t>
@@ -34679,6 +34752,11 @@
       <c r="D1278" t="n">
         <v>2</v>
       </c>
+      <c r="F1278" s="3" t="inlineStr">
+        <is>
+          <t>kein Land, in m+ korrigieren. Unsicher, West-Brasilien</t>
+        </is>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="14" t="inlineStr">
@@ -34704,6 +34782,11 @@
           <t>Westaustralien</t>
         </is>
       </c>
+      <c r="F1279" s="3" t="inlineStr">
+        <is>
+          <t>in m+ korrigieren</t>
+        </is>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="14" t="inlineStr">
@@ -34949,6 +35032,11 @@
       <c r="D1291" t="n">
         <v>1</v>
       </c>
+      <c r="F1291" s="3" t="inlineStr">
+        <is>
+          <t>Quali in m+ korrigieren</t>
+        </is>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="14" t="inlineStr">
@@ -35220,7 +35308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1306">
+    <row r="1306" ht="30" customHeight="1" s="7">
       <c r="A1306" s="14" t="inlineStr">
         <is>
           <t>Zaire</t>
@@ -35238,6 +35326,11 @@
       </c>
       <c r="D1306" t="n">
         <v>2</v>
+      </c>
+      <c r="F1306" s="3" t="inlineStr">
+        <is>
+          <t>Zaire als Ethnie? Hab ich noch nie gesehen.</t>
+        </is>
       </c>
     </row>
     <row r="1307">
@@ -35589,8 +35682,8 @@
   </sheetPr>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -35975,7 +36068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="30" customHeight="1" s="7">
       <c r="A27" t="inlineStr">
         <is>
           <t>Handelsposten (Handelsstation)</t>
@@ -35987,6 +36080,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>Handelsposten/Handelsstation</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>ein Wort würde wohl auch reichen.</t>
         </is>
       </c>
     </row>
@@ -36185,7 +36283,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="30" customHeight="1" s="7">
       <c r="A45" t="inlineStr">
         <is>
           <t>Land/Region</t>
@@ -36194,9 +36292,9 @@
       <c r="D45" t="n">
         <v>534</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Land</t>
+      <c r="F45" s="14" t="inlineStr">
+        <is>
+          <t>heißt wohl Land oder Region, unentscheidbar</t>
         </is>
       </c>
     </row>
@@ -36335,7 +36433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="30" customHeight="1" s="7">
       <c r="A58" t="inlineStr">
         <is>
           <t>Stadt (oder Gemeinde)</t>
@@ -36351,7 +36449,7 @@
       </c>
       <c r="F58" s="14" t="inlineStr">
         <is>
-          <t>für rst vereinfacht</t>
+          <t>für rst vereinfacht, jede Stadt sollte eine Gemeinde sein</t>
         </is>
       </c>
     </row>
